--- a/Data/Archive/codebook.xlsx
+++ b/Data/Archive/codebook.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\caoyujin\Desktop\CSV\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/HarshitGaur/Documents/Northeastern University/MPS Analytics/ALY 6015/Final Project/Presidential_Election_2016_Classification/Data/Archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435DF6D9-FBC0-9547-B830-6E1A9A218A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="12280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Set Description" sheetId="1" r:id="rId1"/>
@@ -1313,11 +1314,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1353,6 +1354,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1375,7 +1384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1384,14 +1393,33 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1486,6 +1514,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1521,6 +1566,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1696,122 +1758,122 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.7109375" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="94.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="9" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="9" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="9" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="9" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="9" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>42850</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="9">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="9">
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="9" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1822,65 +1884,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J149"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.42578125" customWidth="1"/>
-    <col min="2" max="2" width="53.7109375" customWidth="1"/>
-    <col min="3" max="3" width="150.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.5703125" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="61.83203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="18.1640625" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.6640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.83203125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="12" t="s">
         <v>284</v>
       </c>
       <c r="D2" t="s">
@@ -1890,14 +1954,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="12" t="s">
         <v>286</v>
       </c>
       <c r="D3" t="s">
@@ -1907,14 +1971,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="13" t="s">
         <v>287</v>
       </c>
       <c r="D4" t="s">
@@ -1924,14 +1988,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8"/>
       <c r="D5" t="s">
         <v>282</v>
       </c>
@@ -1939,14 +2002,13 @@
         <v>288</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="8"/>
       <c r="D6" t="s">
         <v>282</v>
       </c>
@@ -1954,14 +2016,14 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>26</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="11" t="s">
         <v>298</v>
       </c>
       <c r="D7" t="s">
@@ -1971,14 +2033,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>36</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="8"/>
       <c r="D8" t="s">
         <v>282</v>
       </c>
@@ -1986,14 +2047,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8"/>
       <c r="D9" t="s">
         <v>282</v>
       </c>
@@ -2001,14 +2061,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>40</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="8"/>
       <c r="D10" t="s">
         <v>282</v>
       </c>
@@ -2019,14 +2078,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C11" s="8"/>
       <c r="D11" t="s">
         <v>282</v>
       </c>
@@ -2037,14 +2095,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>290</v>
       </c>
       <c r="D12" t="s">
@@ -2054,14 +2112,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>46</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="11" t="s">
         <v>291</v>
       </c>
       <c r="D13" t="s">
@@ -2074,14 +2132,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="8"/>
       <c r="D14" t="s">
         <v>282</v>
       </c>
@@ -2089,14 +2146,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="8"/>
       <c r="D15" t="s">
         <v>282</v>
       </c>
@@ -2104,14 +2160,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>52</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C16" s="8"/>
       <c r="D16" t="s">
         <v>282</v>
       </c>
@@ -2119,14 +2174,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="8"/>
       <c r="D17" t="s">
         <v>282</v>
       </c>
@@ -2137,14 +2191,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="8"/>
       <c r="D18" t="s">
         <v>282</v>
       </c>
@@ -2155,14 +2208,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>58</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="11" t="s">
         <v>292</v>
       </c>
       <c r="D19" t="s">
@@ -2172,14 +2225,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="11" t="s">
         <v>293</v>
       </c>
       <c r="D20" t="s">
@@ -2189,14 +2242,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="8"/>
       <c r="D21" t="s">
         <v>282</v>
       </c>
@@ -2204,14 +2256,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C22" s="8"/>
       <c r="D22" t="s">
         <v>282</v>
       </c>
@@ -2219,14 +2270,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>66</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="8"/>
       <c r="D23" t="s">
         <v>282</v>
       </c>
@@ -2234,14 +2284,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C24" s="8"/>
       <c r="D24" t="s">
         <v>282</v>
       </c>
@@ -2252,14 +2301,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="8"/>
       <c r="D25" t="s">
         <v>282</v>
       </c>
@@ -2270,14 +2318,14 @@
         <v>289</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>72</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="11" t="s">
         <v>294</v>
       </c>
       <c r="D26" t="s">
@@ -2287,14 +2335,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>74</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="11" t="s">
         <v>295</v>
       </c>
       <c r="D27" t="s">
@@ -2307,14 +2355,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>76</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C28" s="8"/>
       <c r="D28" t="s">
         <v>282</v>
       </c>
@@ -2325,14 +2372,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>78</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C29" s="8"/>
       <c r="D29" t="s">
         <v>282</v>
       </c>
@@ -2343,14 +2389,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>80</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C30" s="8"/>
       <c r="D30" t="s">
         <v>282</v>
       </c>
@@ -2361,14 +2406,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="8"/>
       <c r="D31" t="s">
         <v>282</v>
       </c>
@@ -2379,14 +2423,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>84</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="8"/>
       <c r="D32" t="s">
         <v>282</v>
       </c>
@@ -2397,14 +2440,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="8"/>
       <c r="D33" t="s">
         <v>282</v>
       </c>
@@ -2415,14 +2457,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="8"/>
       <c r="D34" t="s">
         <v>282</v>
       </c>
@@ -2433,14 +2474,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>90</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="8"/>
       <c r="D35" t="s">
         <v>282</v>
       </c>
@@ -2451,14 +2491,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>92</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="8"/>
       <c r="D36" t="s">
         <v>282</v>
       </c>
@@ -2469,14 +2508,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>94</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="8"/>
       <c r="D37" t="s">
         <v>282</v>
       </c>
@@ -2487,14 +2525,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>96</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="8"/>
       <c r="D38" t="s">
         <v>282</v>
       </c>
@@ -2505,14 +2542,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>98</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="8"/>
       <c r="D39" t="s">
         <v>282</v>
       </c>
@@ -2523,14 +2559,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>100</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C40" s="8"/>
       <c r="D40" t="s">
         <v>282</v>
       </c>
@@ -2541,14 +2576,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>102</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C41" s="8"/>
       <c r="D41" t="s">
         <v>282</v>
       </c>
@@ -2559,14 +2593,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>104</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C42" s="8"/>
       <c r="D42" t="s">
         <v>282</v>
       </c>
@@ -2577,14 +2610,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>106</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C43" s="8"/>
       <c r="D43" t="s">
         <v>282</v>
       </c>
@@ -2595,14 +2627,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>108</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="8"/>
       <c r="D44" t="s">
         <v>282</v>
       </c>
@@ -2613,14 +2644,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>110</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C45" s="8"/>
       <c r="D45" t="s">
         <v>282</v>
       </c>
@@ -2631,14 +2661,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>112</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="8"/>
       <c r="D46" t="s">
         <v>282</v>
       </c>
@@ -2649,14 +2678,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>114</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C47" s="8"/>
       <c r="D47" t="s">
         <v>282</v>
       </c>
@@ -2667,14 +2695,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>116</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="8"/>
       <c r="D48" t="s">
         <v>282</v>
       </c>
@@ -2685,14 +2712,14 @@
         <v>296</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>118</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="14" t="s">
         <v>297</v>
       </c>
       <c r="D49" t="s">
@@ -2702,14 +2729,14 @@
         <v>285</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>120</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C50" s="14" t="s">
         <v>297</v>
       </c>
       <c r="D50" t="s">
@@ -2719,14 +2746,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>122</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="C51" s="8"/>
       <c r="D51" t="s">
         <v>282</v>
       </c>
@@ -2734,14 +2760,13 @@
         <v>285</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>124</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="8"/>
       <c r="D52" t="s">
         <v>282</v>
       </c>
@@ -2752,14 +2777,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>126</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B53" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C53" s="8"/>
       <c r="D53" t="s">
         <v>282</v>
       </c>
@@ -2770,14 +2794,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>128</v>
       </c>
-      <c r="B54" s="11" t="s">
+      <c r="B54" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C54" s="8"/>
       <c r="D54" t="s">
         <v>282</v>
       </c>
@@ -2788,14 +2811,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C55" s="8"/>
       <c r="D55" t="s">
         <v>282</v>
       </c>
@@ -2806,14 +2828,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>132</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C56" s="8"/>
       <c r="D56" t="s">
         <v>282</v>
       </c>
@@ -2824,14 +2845,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C57" s="8"/>
       <c r="D57" t="s">
         <v>282</v>
       </c>
@@ -2842,14 +2862,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C58" s="8"/>
       <c r="D58" t="s">
         <v>282</v>
       </c>
@@ -2860,14 +2879,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C59" s="8"/>
       <c r="D59" t="s">
         <v>282</v>
       </c>
@@ -2878,14 +2896,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C60" s="8"/>
       <c r="D60" t="s">
         <v>282</v>
       </c>
@@ -2896,14 +2913,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C61" s="8"/>
       <c r="D61" t="s">
         <v>282</v>
       </c>
@@ -2914,14 +2930,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C62" s="8"/>
       <c r="D62" t="s">
         <v>282</v>
       </c>
@@ -2932,14 +2947,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C63" s="8"/>
       <c r="D63" t="s">
         <v>282</v>
       </c>
@@ -2950,14 +2964,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C64" s="8"/>
       <c r="D64" t="s">
         <v>282</v>
       </c>
@@ -2968,14 +2981,13 @@
         <v>289</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C65" s="8"/>
       <c r="D65" t="s">
         <v>282</v>
       </c>
@@ -2986,14 +2998,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C66" s="8"/>
       <c r="D66" t="s">
         <v>282</v>
       </c>
@@ -3004,14 +3015,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C67" s="8"/>
       <c r="D67" t="s">
         <v>282</v>
       </c>
@@ -3022,14 +3032,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C68" s="8"/>
       <c r="D68" t="s">
         <v>282</v>
       </c>
@@ -3040,14 +3049,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="8"/>
       <c r="D69" t="s">
         <v>282</v>
       </c>
@@ -3058,14 +3066,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C70" s="8"/>
       <c r="D70" t="s">
         <v>282</v>
       </c>
@@ -3076,14 +3083,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C71" s="8"/>
       <c r="D71" t="s">
         <v>282</v>
       </c>
@@ -3094,14 +3100,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C72" s="8"/>
       <c r="D72" t="s">
         <v>282</v>
       </c>
@@ -3112,14 +3117,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C73" s="8"/>
       <c r="D73" t="s">
         <v>282</v>
       </c>
@@ -3130,14 +3134,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>168</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C74" s="8"/>
       <c r="D74" t="s">
         <v>282</v>
       </c>
@@ -3148,14 +3151,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C75" s="8"/>
       <c r="D75" t="s">
         <v>282</v>
       </c>
@@ -3166,14 +3168,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C76" s="8"/>
       <c r="D76" t="s">
         <v>282</v>
       </c>
@@ -3184,14 +3185,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C77" s="8"/>
       <c r="D77" t="s">
         <v>282</v>
       </c>
@@ -3202,14 +3202,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>176</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C78" s="8"/>
       <c r="D78" t="s">
         <v>282</v>
       </c>
@@ -3220,14 +3219,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>178</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C79" s="8"/>
       <c r="D79" t="s">
         <v>282</v>
       </c>
@@ -3238,14 +3236,14 @@
         <v>351</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="11" t="s">
         <v>182</v>
       </c>
       <c r="D80" t="s">
@@ -3258,14 +3256,14 @@
         <v>351</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>183</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D81" t="s">
@@ -3278,14 +3276,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>186</v>
       </c>
       <c r="B82" t="s">
         <v>234</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="11" t="s">
         <v>303</v>
       </c>
       <c r="D82" t="s">
@@ -3298,14 +3296,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>187</v>
       </c>
       <c r="B83" t="s">
         <v>235</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="11" t="s">
         <v>304</v>
       </c>
       <c r="D83" t="s">
@@ -3318,14 +3316,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>188</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="11" t="s">
         <v>305</v>
       </c>
       <c r="D84" t="s">
@@ -3338,14 +3336,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>189</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="11" t="s">
         <v>306</v>
       </c>
       <c r="D85" t="s">
@@ -3358,14 +3356,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>190</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="11" t="s">
         <v>307</v>
       </c>
       <c r="D86" t="s">
@@ -3378,14 +3376,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>191</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="11" t="s">
         <v>308</v>
       </c>
       <c r="D87" t="s">
@@ -3398,14 +3396,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>192</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="11" t="s">
         <v>335</v>
       </c>
       <c r="D88" t="s">
@@ -3418,14 +3416,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>193</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="11" t="s">
         <v>336</v>
       </c>
       <c r="D89" t="s">
@@ -3438,14 +3436,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>194</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="11" t="s">
         <v>309</v>
       </c>
       <c r="D90" t="s">
@@ -3458,14 +3456,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>195</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="11" t="s">
         <v>310</v>
       </c>
       <c r="D91" t="s">
@@ -3478,14 +3476,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>196</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="11" t="s">
         <v>311</v>
       </c>
       <c r="D92" t="s">
@@ -3498,14 +3496,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="11" t="s">
         <v>312</v>
       </c>
       <c r="D93" t="s">
@@ -3518,14 +3516,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>198</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="11" t="s">
         <v>313</v>
       </c>
       <c r="D94" t="s">
@@ -3538,14 +3536,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>199</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="11" t="s">
         <v>314</v>
       </c>
       <c r="D95" t="s">
@@ -3558,14 +3556,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>200</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="11" t="s">
         <v>315</v>
       </c>
       <c r="D96" t="s">
@@ -3578,14 +3576,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>201</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="11" t="s">
         <v>316</v>
       </c>
       <c r="D97" t="s">
@@ -3598,14 +3596,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>202</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="11" t="s">
         <v>339</v>
       </c>
       <c r="D98" t="s">
@@ -3618,14 +3616,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="11" t="s">
         <v>317</v>
       </c>
       <c r="D99" t="s">
@@ -3638,14 +3636,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="11" t="s">
         <v>340</v>
       </c>
       <c r="D100" t="s">
@@ -3658,14 +3656,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>205</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="11" t="s">
         <v>318</v>
       </c>
       <c r="D101" t="s">
@@ -3678,14 +3676,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>206</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="11" t="s">
         <v>319</v>
       </c>
       <c r="D102" t="s">
@@ -3698,14 +3696,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>207</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="11" t="s">
         <v>320</v>
       </c>
       <c r="D103" t="s">
@@ -3718,14 +3716,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>208</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="11" t="s">
         <v>321</v>
       </c>
       <c r="D104" t="s">
@@ -3738,14 +3736,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>209</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="11" t="s">
         <v>350</v>
       </c>
       <c r="D105" t="s">
@@ -3758,14 +3756,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>210</v>
       </c>
       <c r="B106" t="s">
         <v>258</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="11" t="s">
         <v>341</v>
       </c>
       <c r="D106" t="s">
@@ -3778,14 +3776,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>211</v>
       </c>
       <c r="B107" t="s">
         <v>259</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="11" t="s">
         <v>342</v>
       </c>
       <c r="D107" t="s">
@@ -3798,14 +3796,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="11" t="s">
         <v>343</v>
       </c>
       <c r="D108" t="s">
@@ -3818,14 +3816,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>213</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="11" t="s">
         <v>344</v>
       </c>
       <c r="D109" t="s">
@@ -3838,14 +3836,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>214</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="11" t="s">
         <v>345</v>
       </c>
       <c r="D110" t="s">
@@ -3858,14 +3856,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>215</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="11" t="s">
         <v>346</v>
       </c>
       <c r="D111" t="s">
@@ -3878,14 +3876,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="11" t="s">
         <v>337</v>
       </c>
       <c r="D112" t="s">
@@ -3898,14 +3896,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>217</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="11" t="s">
         <v>338</v>
       </c>
       <c r="D113" t="s">
@@ -3918,14 +3916,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>218</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="11" t="s">
         <v>322</v>
       </c>
       <c r="D114" t="s">
@@ -3938,14 +3936,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>219</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="11" t="s">
         <v>323</v>
       </c>
       <c r="D115" t="s">
@@ -3958,14 +3956,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>220</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="11" t="s">
         <v>324</v>
       </c>
       <c r="D116" t="s">
@@ -3978,14 +3976,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>221</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="11" t="s">
         <v>325</v>
       </c>
       <c r="D117" t="s">
@@ -3998,14 +3996,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>222</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="11" t="s">
         <v>326</v>
       </c>
       <c r="D118" t="s">
@@ -4018,14 +4016,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>223</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="11" t="s">
         <v>327</v>
       </c>
       <c r="D119" t="s">
@@ -4038,14 +4036,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>224</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="11" t="s">
         <v>328</v>
       </c>
       <c r="D120" t="s">
@@ -4058,14 +4056,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>225</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="11" t="s">
         <v>329</v>
       </c>
       <c r="D121" t="s">
@@ -4078,14 +4076,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>226</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="11" t="s">
         <v>347</v>
       </c>
       <c r="D122" t="s">
@@ -4098,14 +4096,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="11" t="s">
         <v>330</v>
       </c>
       <c r="D123" t="s">
@@ -4118,14 +4116,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>228</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="11" t="s">
         <v>348</v>
       </c>
       <c r="D124" t="s">
@@ -4138,14 +4136,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="11" t="s">
         <v>331</v>
       </c>
       <c r="D125" t="s">
@@ -4158,14 +4156,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="s">
         <v>230</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C126" s="11" t="s">
         <v>332</v>
       </c>
       <c r="D126" t="s">
@@ -4178,14 +4176,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
         <v>231</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="11" t="s">
         <v>333</v>
       </c>
       <c r="D127" t="s">
@@ -4198,14 +4196,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>232</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="11" t="s">
         <v>334</v>
       </c>
       <c r="D128" t="s">
@@ -4218,14 +4216,14 @@
         <v>352</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>233</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="11" t="s">
         <v>349</v>
       </c>
       <c r="D129" t="s">
@@ -4238,482 +4236,481 @@
         <v>352</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
+    <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A130" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B130" s="13" t="s">
+      <c r="B130" s="8" t="s">
         <v>354</v>
       </c>
-      <c r="C130" s="13" t="s">
+      <c r="C130" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="D130" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E130" s="13" t="s">
+      <c r="D130" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E130" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F130" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G130" s="13" t="s">
+      <c r="F130" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G130" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
+    <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A131" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D131" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E131" s="13" t="s">
+      <c r="D131" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E131" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F131" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G131" s="13" t="s">
+      <c r="F131" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G131" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
+    <row r="132" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A132" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B132" s="13" t="s">
+      <c r="B132" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C132" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D132" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E132" s="13" t="s">
+      <c r="D132" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E132" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F132" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G132" s="13" t="s">
+      <c r="F132" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G132" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
+    <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A133" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B133" s="13" t="s">
+      <c r="B133" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C133" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="D133" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E133" s="13" t="s">
+      <c r="D133" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E133" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F133" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G133" s="13" t="s">
+      <c r="F133" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G133" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
+    <row r="134" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A134" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="D134" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E134" s="13" t="s">
+      <c r="D134" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E134" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F134" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G134" s="13" t="s">
+      <c r="F134" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G134" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
+    <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A135" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B135" s="13" t="s">
+      <c r="B135" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="C135" s="13" t="s">
+      <c r="C135" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="D135" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E135" s="13" t="s">
+      <c r="D135" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E135" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F135" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G135" s="13" t="s">
+      <c r="F135" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G135" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
+    <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A136" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B136" s="13" t="s">
+      <c r="B136" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="C136" s="13" t="s">
+      <c r="C136" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="D136" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E136" s="13" t="s">
+      <c r="D136" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E136" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F136" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G136" s="13" t="s">
+      <c r="F136" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G136" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
+    <row r="137" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A137" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="D137" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E137" s="13" t="s">
+      <c r="D137" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E137" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F137" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G137" s="13" t="s">
+      <c r="F137" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G137" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
+    <row r="138" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A138" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="B138" s="13" t="s">
+      <c r="B138" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="C138" s="13" t="s">
+      <c r="C138" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="D138" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E138" s="13" t="s">
+      <c r="D138" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E138" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F138" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G138" s="13" t="s">
+      <c r="F138" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G138" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
+    <row r="139" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A139" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B139" s="13" t="s">
+      <c r="B139" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C139" s="13" t="s">
+      <c r="C139" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="D139" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E139" s="13" t="s">
+      <c r="D139" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E139" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F139" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G139" s="13" t="s">
+      <c r="F139" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G139" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
+    <row r="140" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A140" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B140" s="13" t="s">
+      <c r="B140" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="C140" s="13" t="s">
+      <c r="C140" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D140" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E140" s="13" t="s">
+      <c r="D140" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E140" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F140" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G140" s="13" t="s">
+      <c r="F140" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G140" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
+    <row r="141" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A141" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="B141" s="13" t="s">
+      <c r="B141" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="D141" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E141" s="13" t="s">
+      <c r="D141" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E141" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F141" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G141" s="13" t="s">
+      <c r="F141" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G141" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
+    <row r="142" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A142" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B142" s="13" t="s">
+      <c r="B142" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="C142" s="13" t="s">
+      <c r="C142" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="D142" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E142" s="13" t="s">
+      <c r="D142" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E142" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F142" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G142" s="13" t="s">
+      <c r="F142" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G142" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
+    <row r="143" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A143" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="B143" s="13" t="s">
+      <c r="B143" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="C143" s="13" t="s">
+      <c r="C143" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D143" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E143" s="13" t="s">
+      <c r="D143" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E143" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F143" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G143" s="13" t="s">
+      <c r="F143" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G143" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
+    <row r="144" spans="1:7" ht="96" x14ac:dyDescent="0.2">
+      <c r="A144" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="11" t="s">
         <v>410</v>
       </c>
-      <c r="D144" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E144" s="13" t="s">
+      <c r="D144" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E144" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F144" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G144" s="13" t="s">
+      <c r="F144" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G144" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
+    <row r="145" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A145" s="8" t="s">
         <v>388</v>
       </c>
-      <c r="B145" s="13" t="s">
+      <c r="B145" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C145" s="13" t="s">
+      <c r="C145" s="11" t="s">
         <v>409</v>
       </c>
-      <c r="D145" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E145" s="13" t="s">
+      <c r="D145" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E145" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F145" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G145" s="13" t="s">
+      <c r="F145" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G145" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
+    <row r="146" spans="1:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="A146" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B146" s="13" t="s">
+      <c r="B146" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="C146" s="13" t="s">
+      <c r="C146" s="11" t="s">
         <v>411</v>
       </c>
-      <c r="D146" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E146" s="13" t="s">
+      <c r="D146" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E146" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F146" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G146" s="13" t="s">
+      <c r="F146" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G146" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="13" t="s">
+    <row r="147" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A147" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="11" t="s">
         <v>412</v>
       </c>
-      <c r="D147" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E147" s="13" t="s">
+      <c r="D147" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E147" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F147" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G147" s="13" t="s">
+      <c r="F147" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G147" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="13" t="s">
+    <row r="148" spans="1:7" ht="64" x14ac:dyDescent="0.2">
+      <c r="A148" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B148" s="13" t="s">
+      <c r="B148" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="C148" s="13" t="s">
+      <c r="C148" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="D148" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E148" s="13" t="s">
+      <c r="D148" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E148" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F148" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G148" s="13" t="s">
+      <c r="F148" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="G148" s="8" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="13" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="8" t="s">
         <v>396</v>
       </c>
-      <c r="B149" s="13" t="s">
+      <c r="B149" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="E149" s="13" t="s">
+      <c r="D149" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="E149" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="F149" s="13" t="s">
+      <c r="F149" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="G149" s="13" t="s">
+      <c r="G149" s="8" t="s">
         <v>283</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C49" r:id="rId1"/>
-    <hyperlink ref="C50" r:id="rId2"/>
+    <hyperlink ref="C49" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C50" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
